--- a/data/out/wiki/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/standings_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -517,55 +517,49 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'France']</t>
+          <t>['West Germany', 'Netherlands', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czechoslovakia</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Belgium', 'France']</t>
+          <t>['Belgium', 'Italy', 'England']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -575,19 +569,15 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -599,21 +589,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
@@ -627,19 +611,15 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -647,45 +627,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain', 'Portugal']</t>
+          <t>['Belgium', 'Yugoslavia', 'France']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -693,41 +683,51 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy', 'Spain']</t>
+          <t>['Belgium', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -747,29 +747,29 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['Spain', 'West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -789,29 +789,29 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark', 'France']</t>
+          <t>['Spain', 'West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -831,22 +831,22 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['CIS', 'Netherlands', 'Germany']</t>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>Soviet Union</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>CIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -857,59 +857,49 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CIS</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'Scotland']</t>
+          <t>['Denmark', 'Sweden', 'France']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -925,12 +915,12 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Netherlands', 'Germany', 'CIS']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -940,52 +930,62 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['Scotland', 'Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -993,51 +993,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1049,47 +1039,37 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>21</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1101,10 +1081,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1119,27 +1099,27 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1153,19 +1133,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1191,7 +1171,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -1201,41 +1181,51 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>29</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1243,49 +1233,49 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -1299,21 +1289,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>88</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
@@ -1327,19 +1311,15 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1347,135 +1327,145 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>85</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>22</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1487,21 +1477,15 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>41</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
@@ -1520,14 +1504,10 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1539,10 +1519,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1587,41 +1567,51 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1629,49 +1619,49 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>England</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1671,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1697,22 +1687,22 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1723,49 +1713,49 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -1779,21 +1769,15 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>95</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
@@ -1802,24 +1786,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1827,135 +1807,145 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>95</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>57</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1963,7 +1953,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1979,22 +1969,22 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2005,49 +1995,49 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -2061,25 +2051,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>40</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2097,11 +2081,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2109,41 +2089,51 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2151,41 +2141,51 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>40</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2193,59 +2193,49 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>30</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2261,44 +2251,44 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2309,27 +2299,27 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2329,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2355,22 +2345,22 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2381,41 +2371,51 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>89</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2423,51 +2423,41 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>25</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2475,7 +2465,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2491,22 +2481,22 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2517,59 +2507,59 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2585,67 +2575,77 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>Russia</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Poland</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2653,51 +2653,41 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>11</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2709,25 +2699,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>19</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2737,7 +2721,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2745,11 +2729,7 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2761,19 +2741,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2799,7 +2779,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -2813,25 +2793,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2841,7 +2821,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2851,7 +2831,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -2861,41 +2841,51 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>24</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2903,49 +2893,49 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2945,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2971,75 +2961,85 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>35</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3055,22 +3055,22 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Wales</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3097,22 +3097,22 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3139,22 +3139,22 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Slovakia', 'England']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3165,41 +3165,51 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3207,7 +3217,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3223,75 +3233,85 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>30</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Poland', 'Germany']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3307,85 +3327,75 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>38</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3401,22 +3411,22 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands']</t>
+          <t>['Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -3427,51 +3437,41 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>21</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3495,22 +3495,22 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -3521,49 +3521,49 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>['Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3589,22 +3589,22 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -3615,49 +3615,49 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3683,22 +3683,22 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
@@ -3709,59 +3709,59 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Croatia', 'England']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3777,119 +3777,119 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>30</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>55</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3897,51 +3897,41 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>98</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3949,7 +3939,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3965,22 +3955,22 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -3991,49 +3981,49 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Denmark', 'England']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -4043,49 +4033,49 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4085,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -4111,22 +4101,22 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Denmark', 'England']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4137,49 +4127,49 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
     </row>
@@ -4189,49 +4179,49 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Denmark', 'England']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -4241,49 +4231,49 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -4297,21 +4287,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
-      </c>
-      <c r="D83" t="n">
-        <v>75</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
@@ -4320,24 +4304,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4349,10 +4329,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4367,7 +4347,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4397,41 +4377,51 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>47</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4439,49 +4429,49 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -4491,49 +4481,49 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -4543,41 +4533,239 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>80</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
+          <t>['Austria', 'France']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['Romania', 'Belgium']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>24</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>37</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['Romania', 'Belgium']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
           <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
